--- a/Excel/creating_a_crossfade.xlsx
+++ b/Excel/creating_a_crossfade.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,18 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Marathi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Creating a Crossfade - Audacity Manual</t>
   </si>
@@ -49,10 +43,7 @@
     <t>Roughly position the tracks</t>
   </si>
   <si>
-    <t>Drag the second track to roughly the right place using the Time Shift tool</t>
-  </si>
-  <si>
-    <t>. Don't worry about getting the position too precise at this stage as we will adjust the position later. For crossfading two music tracks, an overlap of around 5 seconds is usually suitable, though sometimes a much shorter, or longer crossfade may sound better. How long the crossfade transition lasts is largely a matter of personal taste.</t>
+    <t>Drag the second track to roughly the right place using the Time Shift tool  . Don't worry about getting the position too precise at this stage as we will adjust the position later. For crossfading two music tracks, an overlap of around 5 seconds is usually suitable, though sometimes a much shorter, or longer crossfade may sound better. How long the crossfade transition lasts is largely a matter of personal taste.</t>
   </si>
   <si>
     <t>For detailed information about handling Tracks and Clips, see Audio Tracks and Clips.</t>
@@ -67,10 +58,7 @@
     <t>The end of the first track will be the point at which the first track finally stops (has faded to silence). The start of the second track will be the point at which the second track starts to fade in.</t>
   </si>
   <si>
-    <t>For rhythmic music it will often sound best if the second track is carefully positioned so that the beats in the second track line up with the beats in the first track. If the tempi of the tracks are different it will not be possible to make all of the beats line up. In this case, try to make the beats align at a point just to left of halfway through the overlap.</t>
-  </si>
-  <si>
-    <t>Zoom in/out as necessary to see an appropriate level of detail.</t>
+    <t>For rhythmic music it will often sound best if the second track is carefully positioned so that the beats in the second track line up with the beats in the first track. If the tempi of the tracks are different it will not be possible to make all of the beats line up. In this case, try to make the beats align at a point just to left of halfway through the overlap.  Zoom in/out as necessary to see an appropriate level of detail.</t>
   </si>
   <si>
     <t>After selecting the region to be crossfaded, create a split at both ends of the selection using Ctrl + I. The split marks will greatly facilitate selecting the appropriate areas in each track.</t>
@@ -100,98 +88,84 @@
     <t>For crossfading music where there is a substantial difference in tempo, a smoother sounding crossfade may be achieved by allowing the volume to drop by the use of fade shapes that dip lower than a linear fade.</t>
   </si>
   <si>
-    <t>क्रॉसफेड ​​तयार करणे - ऑडसिटी मॅन्युअल</t>
+    <t>क्रॉसफेड ​​तयार करणे - ओड्यासिटी माहिती पुस्तिका</t>
   </si>
   <si>
     <t>क्रॉसफेड ​​तयार करत आहे</t>
   </si>
   <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>क्रॉसफेडचा उद्देश ऑडिओच्या दोन विभागांमधील सहज संक्रमण निर्माण करणे आहे. हे दोन विभाग ओव्हरलॅप करतात आणि एक विभाग म्हणून इतर फीके आतून कमी होतात. हे तंत्र सामान्यत: डीजेद्वारे "संकलन" ट्रॅक आणि मॅशअपसाठी वापरले जाते. क्रॉसफेडचा वापर केवळ संगीताच्या तुकड्यांमध्ये सामील होण्यापुरता मर्यादित नाही, परंतु भाषणातील रेकॉर्डिंग संपादित करणे, गाणे वाढविणे, ऑडिओ सिक्वेंसरसाठी पळवाट तयार करणे, खराब झालेले रेकॉर्डिंग दुरुस्त करणे आणि बरेच काही यासह इतर अनेक परिस्थितींमध्ये सुलभ संक्रमण आवश्यक आहे.</t>
-  </si>
-  <si>
-    <t>दोन ट्रॅक क्रॉसफेड ​​कसे करावे</t>
-  </si>
-  <si>
-    <t>प्रथम ट्रॅक आयात किंवा रेकॉर्ड केले जावेत. डीफॉल्टनुसार, दोन ऑडिओ फायली आयात केल्याने एकापेक्षा एक वर दोन ऑडिओ ट्रॅक तयार होतील. त्याचप्रमाणे, नवीन ट्रॅक रेकॉर्ड करणे डीफॉल्टनुसार प्रकल्पातील इतर ट्रॅकच्या खाली नवीन ट्रॅक तयार करेल. आम्हाला प्रारंभिक बिंदू म्हणून हवी असलेली ही व्यवस्था आहे (स्पष्टतेसाठी चित्रे मोनो ट्रॅक दर्शवतात, परंतु प्रक्रिया स्टिरिओ ट्रॅकसाठी अगदी तशीच आहे).</t>
-  </si>
-  <si>
-    <t>जर आपल्याला सध्या एका ऑडिओ ट्रॅकमध्ये एकामागील एकापेक्षा जास्त गाणी क्रॉसफेड ​​करायची असतील तर या लेखात वर्णन केलेल्या पद्धतींचा वापर करून क्रॉसफेड ​​करण्यापूर्वी आपण पहिले गाणे निवडले पाहिजे, ते गाणे हलविण्यासाठी संपादन&gt; क्लिप सीमारेषा&gt; स्प्लिट न्यू वापरा. त्याच्या स्वत: च्या स्वतंत्र ट्रॅकवर, नंतर निवडा आणि नवीन गाणी विभाजित करा.</t>
-  </si>
-  <si>
-    <t>ट्रॅक जवळजवळ स्थितीत ठेवा</t>
-  </si>
-  <si>
-    <t>टाइम शिफ्ट टूलचा वापर करून जवळजवळ योग्य ठिकाणी दुसरा ट्रॅक ड्रॅग करा</t>
-  </si>
-  <si>
-    <t>. या स्थितीत स्थान अगदी तंतोतंत मिळण्याची चिंता करू नका कारण आम्ही नंतरचे स्थान समायोजित करू. दोन संगीत ट्रॅक क्रॉसफॅडिंगसाठी, साधारणत: 5 सेकंदांचा ओव्हरलॅप योग्य असतो, कधीकधी खूपच लहान किंवा जास्त क्रॉसफेड ​​अधिक चांगला वाटतो. क्रॉसफेड ​​संक्रमण किती काळ टिकेल हे मुख्यतः वैयक्तिक चवचा विषय आहे.</t>
-  </si>
-  <si>
-    <t>ट्रॅक आणि क्लिप हाताळण्याविषयी तपशीलवार माहितीसाठी ऑडिओ ट्रॅक आणि क्लिप पहा.</t>
-  </si>
-  <si>
-    <t>ट्रॅक अधिक तंतोतंत संरेखित करा</t>
-  </si>
-  <si>
-    <t>ट्रॅक बर्‍याचदा शांत असतात आणि थोड्या काळासाठी शांत असतात. अग्रगण्य / अनुगामी शांतता निवडून आणि हटवून काढली जाऊ शकते. हटवण्याची निवड योग्य आहे की नाही हे तपासण्यासाठी ऑडिटीचे कट पूर्वावलोकन उपयुक्त ठरू शकते.</t>
-  </si>
-  <si>
-    <t>पहिल्या ट्रॅकचा शेवट हा बिंदू असेल ज्यावर शेवटी पहिला ट्रॅक थांबेल (शांत होण्याकरिता फिकट झाला आहे). दुसर्‍या ट्रॅकची सुरूवात हा बिंदू होईल ज्यावर दुसरा ट्रॅक कोमेजणे सुरू होईल.</t>
-  </si>
-  <si>
-    <t>द्वितीय ट्रॅक काळजीपूर्वक स्थितीत असल्यास लयबद्ध संगीतासाठी ते बर्‍याचदा वाटेल जेणेकरून दुसर्‍या ट्रॅकमधील ठोके पहिल्या ट्रॅकमध्ये मारहाण करतात. ट्रॅकचा टेम्पी वेगळा असल्यास सर्व बीट्सला लाइन अप करणे शक्य होणार नाही. या प्रकरणात, आच्छादन ओलांडून अर्ध्या मार्गाच्या डावीकडे फक्त एका बिंदूवर बीट संरेखित करण्याचा प्रयत्न करा.</t>
-  </si>
-  <si>
-    <t>योग्य स्तर तपशीलांसाठी आवश्यक म्हणून झूम इन / आउट.</t>
-  </si>
-  <si>
-    <t>क्रॉसफेड ​​करण्यासाठी प्रदेश निवडल्यानंतर, सीटीआरएल + I वापरून निवडीच्या दोन्ही टोकांवर विभाजन तयार करा. स्प्लिटचे चिन्ह प्रत्येक ट्रॅकमधील योग्य क्षेत्रे निवडण्यास मोठ्या प्रमाणात सुविधा देईल.</t>
-  </si>
-  <si>
-    <t>ट्रॅक ट्रिम करा</t>
-  </si>
-  <si>
-    <t>वरील प्रतिमांप्रमाणेच, ट्रॅक पुढील ट्रिम करणे आवश्यक असल्यास, डब-क्लिक करून फेड आउटनंतर (या प्रकरणात वरील ट्रॅकमध्ये) अवांछित प्रदेश निवडा, नंतर ते हटवा.</t>
-  </si>
-  <si>
-    <t>ऑडिओ हटवण्यापूर्वी (या प्रकरणात खालच्या ट्रॅकमध्ये) संपादन&gt; विशेष काढा&gt; स्प्लिट हटवा किंवा कीबोर्ड शॉर्टकट Ctrl + Alt + K वापरा जेणेकरून ट्रॅकचा उर्वरित भाग हलू नये.</t>
+    <t>ओड्यासिटी विकास माहिती पुस्तिका वरुन</t>
+  </si>
+  <si>
+    <t>येथे जा: सुचालन , शोध</t>
+  </si>
+  <si>
+    <t>क्रॉसफेडचा उद्देश ध्वनीच्या दोन विभागांमधील सहज संक्रमण निर्माण करणे आहे. दोन विभाग आच्छादित होतात आणि एक विभाग म्हणून इतर फीके आतून कमी होतात. हे तंत्र सामान्यत: डीजे च्या द्वारे "संकलन" गीतपट्टा आणि मॅशअपसाठी वापरले जाते . क्रॉसफेडचा वापर केवळ संगीताच्या तुकड्यांमध्ये सामील होण्यापुरता मर्यादित नाही, तर भाषण मुद्रण संपादित करणे, गाणे वाढवणे, ध्वनी सिक्वेंसरसाठी चक्राकार फिरणे तयार करणे, खराब झालेले मुद्रण दुरुस्त करणे आणि बरेच काही यासह इतर अनेक परिस्थितींमध्ये सहज संक्रमण आवश्यक आहे.</t>
+  </si>
+  <si>
+    <t>दोन गीतपट्टा क्रॉसफेड ​​कसे करावे</t>
+  </si>
+  <si>
+    <t>प्रथम गीतपट्टा आयात किंवा मुद्रण केले जावेत . पूर्वनिर्धारीतनुसार, दोन ध्वनी धारिका आयात केल्याने एकापेक्षा एक वर दोन ध्वनी गीतपट्टा तयार होतील. त्याचप्रमाणे, नवीन गीतपट्टा मुद्रण करणे पूर्वनिर्धारीतनुसार प्रकल्पातील इतर गीतपट्टाच्या खाली नवीन गीतपट्टा तयार करेल. आम्हाला प्रारंभिक बिंदू म्हणून हवी असलेली ही व्यवस्था आहे (स्पष्टतेसाठी चित्रे मोनो गीतपट्टा दर्शवितात, परंतु प्रक्रिया स्टिरिओ गीतपट्टासाठी अगदी तशीच आहे).</t>
+  </si>
+  <si>
+    <t>आपण सध्या एकच इतर नंतर ते एक आहेत अनेक गाणी क्रॉसफेड करू इच्छित असल्यास ध्वनी गीतपट्टा नंतर हा लेख आपण करणे आवश्यक आहे वर्णन पद्धतींचा वापर करून क्रॉसफेड करण्यापूर्वी निवडा पहिले गाणे वापर संपादित करा&gt; फीत सीमा&gt; विभाजित नवीन गाणे हलविण्यासाठी त्याच्या स्वत: च्या स्वतंत्र गीतपट्टावर, नंतर निवडा आणि नवीन गाणी विभाजित करा.</t>
+  </si>
+  <si>
+    <t>गीतपट्टा जवळजवळ स्थितीत ठेवा</t>
+  </si>
+  <si>
+    <t>वेळ शिफ्ट साधनचा वापर करून जवळजवळ योग्य ठिकाणी दुसरा गीतपट्टा ओढा . या स्थितीत स्थान अगदी तंतोतंत मिळण्याची चिंता करू नका कारण आम्ही नंतरचे स्थान समायोजित करू. दोन संगीत गीतपट्टा क्रॉसफॅडिंगसाठी, साधारणत: 5 सेकंदांचा आच्छादन योग्य असतो, कधीकधी खूपच लहान किंवा जास्त क्रॉसफेड ​​अधिक चांगले वाटेल. क्रॉसफेड ​​संक्रमण किती काळ टिकेल हे मुख्यतः वैयक्तिक चवचा विषय आहे.</t>
+  </si>
+  <si>
+    <t>गीतपट्टा आणि फीत हाताळण्याविषयी तपशीलवार माहितीसाठी ध्वनी गीतपट्टा आणि फीत पहा .</t>
+  </si>
+  <si>
+    <t>गीतपट्टा अधिक तंतोतंत संरेखित करा</t>
+  </si>
+  <si>
+    <t>गीतपट्टा बर्‍याचदा शांत असतात आणि थोड्या काळासाठी शांत असतात. अग्रगण्य / अनुगामी शांतता निवडून आणि हटवून काढली जाऊ शकते. हटवण्याची निवड योग्य आहे हे तपासण्यासाठी ओड्यासिटीचे कट पूर्वावलोकन उपयुक्त ठरू शकते.</t>
+  </si>
+  <si>
+    <t>पहिल्या गीतपट्टाचा शेवट हा बिंदू असेल ज्यावर शेवटी पहिला गीतपट्टा थांबेल (शांत होण्याकरिता फिकट झाला आहे). दुसर्‍या गीतपट्टाची सुरूवात हा बिंदू होईल ज्यावर दुसरा गीतपट्टा कोमेजणे सुरू होईल.</t>
+  </si>
+  <si>
+    <t>द्वितीय गीतपट्टा काळजीपूर्वक स्थितीत असल्यास लयबद्ध संगीतासाठी हे बर्‍याचदा सर्वोत्कृष्ट ठरेल जेणेकरून दुसर्‍या गीतपट्टामधील ठोके पहिल्या गीतपट्टामध्ये मारहाण करतात. गीतपट्टाचा संगीत लय वेगळा असल्यास सर्व बीट्सला रेषा अप करणे शक्य होणार नाही. या प्रकरणात, आच्छादन ओलांडून अर्ध्या मार्गाच्या डावीकडे फक्त एका बिंदूवर बीट संरेखित करण्याचा प्रयत्न करा.  योग्य स्तर तपशीलांसाठी आवश्यक म्हणून दृश्य आकार वाढवा इन / आउट.</t>
+  </si>
+  <si>
+    <t>Crossfaded करणे प्रदेश निवडल्यावर, एक तयार विभाजित वापरून निवड दोन्ही संपतो येथे Ctrl + मी . विभाजित मार्क्स प्रत्येक गीतपट्टामधील योग्य क्षेत्रे निवडण्यास मोठ्या प्रमाणात सोय करतात.</t>
+  </si>
+  <si>
+    <t>गीतपट्टा ट्रिम करा</t>
+  </si>
+  <si>
+    <t>वरील प्रतिमांप्रमाणेच पुढील गीतपट्टा ट्रिम करणे देखील आवश्यक असल्यास, त्यावरील डबल-क्लिक करून फिकट कमी (या प्रकरणात वरील गीतपट्टामध्ये) नंतर अवांछित प्रदेश निवडा.</t>
+  </si>
+  <si>
+    <t>ध्वनी हटवण्यापूर्वी (या प्रकरणात खालच्या गीतपट्टामध्ये) संपादन&gt; विशेष काढा&gt; विभाजित हटवा किंवा कळफलक आडमार्ग Ctrl + Alt + K वापरा जेणेकरून गीतपट्टाचा उर्वरित भाग हलू नये.</t>
   </si>
   <si>
     <t>फिकट लागू करा</t>
   </si>
   <si>
-    <t>फेड लागू करण्याचा जलद मार्ग म्हणजे क्रॉसफेड ​​ट्रॅक परिणाम. हा प्रभाव वरच्या निवडलेल्या ट्रॅकवर एक फॅड-आउट आणि दोन ट्रॅकच्या खालच्या भागात एक फॅड-इन लागू करतो. अधिक जटिल लुप्त होण्याकरिता, पहिल्या ट्रॅकमधील आच्छादित विभागात एक फॅड-आउट लागू केल्यावर आणि दुसर्‍या ट्रॅकच्या आच्छादित विभागात एक फॅड-इन लागू करून, समायोजित करण्यायोग्य फेड प्रभाव लागू केले जाऊ शकते.</t>
-  </si>
-  <si>
-    <t>रेखीय फेड्सचा वापर केल्याने फेडच्या मध्यभागी व्हॉल्यूमची पातळी खाली येऊ शकते.</t>
-  </si>
-  <si>
-    <t>लक्षपूर्वक जुळणार्‍या टेम्पोसह लयबद्ध संगीतासाठी हे बर्‍याच वेळा अवांछनीय असेल आणि रेखीय फॅडपेक्षा उंच वाकलेले (जसे की समान पॉवर फीड आकार) फॅडे आकार वापरुन प्रतिबंधित केले जाऊ शकते.</t>
-  </si>
-  <si>
-    <t>टेम्पोमध्ये भरीव फरक असणार्‍या क्रॉसफॅडिंग संगीतासाठी, रेखीय फिकटपेक्षा कमी बुडणा .्या फॅड शेपच्या वापराने आवाज कमी होऊ देऊन नितळ आवाज करणार्‍या क्रॉसफेडची प्राप्ती होऊ शकते.</t>
+    <t>फिकट लागू करण्याचा त्वरीत मार्ग म्हणजे क्रॉसफेड ​​गीतपट्टा परिणाम. हा प्रभाव वरच्या निवडलेल्या गीतपट्टावर एक फिकट कमी आणि दोन गीतपट्टाच्या खालच्या भागात एक फिकटवाढ लागू करतो. अधिक जटिल लुप्त होण्याकरिता, पहिल्या गीतपट्टामधील आच्छादित विभागात एक फिकट कमी लागू करून आणि दुसर्‍या गीतपट्टाच्या आच्छादित विभागात एक फिकटवाढ लागू करून समायोजित करण्यायोग्य फिकट प्रभाव लागू केले जाऊ शकते.</t>
+  </si>
+  <si>
+    <t>रेखीय फिकट्सचा वापर केल्याने फिकटच्या मध्यभागी आवाजची पातळी खाली येऊ शकते.</t>
+  </si>
+  <si>
+    <t>लक्षपूर्वक जुळणार्‍या संगीत लयसह लयबद्ध संगीतासाठी हे बर्‍याच वेळा अवांछनीय असेल आणि रेखीय फॅडपेक्षा उंच वाकलेले फॅड शेप (जसे की समान पॉवर फीड आकार) वापरुन प्रतिबंधित केले जाऊ शकते .</t>
+  </si>
+  <si>
+    <t>संगीत लयमध्ये भरीव फरक असणार्‍या क्रॉसफॅडिंग संगीतासाठी, रेषात्मक फिकटपेक्षा कमी बुडणा .्या फॅड शेपच्या वापराने आवाज कमी होऊ देऊन नितळ आवाज करणार्‍या क्रॉसफेडची प्राप्ती होऊ शकते.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -207,27 +181,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -236,8 +195,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -245,6 +204,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -323,6 +287,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -357,6 +322,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,305 +498,211 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="88.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="94.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
